--- a/Team-Data/2020-21/1-5-2020-21.xlsx
+++ b/Team-Data/2020-21/1-5-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>111.1</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="BP3" t="n">
-        <v>111.7</v>
+        <v>111.5</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BR3" t="n">
         <v>1</v>
@@ -3073,13 +3073,13 @@
         <v>17.1</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.297</v>
+        <v>0.294</v>
       </c>
       <c r="BW3" t="n">
         <v>0.715</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="BY3" t="n">
         <v>0.16</v>
@@ -3091,16 +3091,16 @@
         <v>0.584</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.69</v>
+        <v>100.81</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.91</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="CE3" t="n">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3203,7 +3203,7 @@
         <v>0.16</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.297</v>
+        <v>0.294</v>
       </c>
       <c r="DM3" t="n">
         <v>0.542</v>
@@ -3212,7 +3212,7 @@
         <v>0.271</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="DP3" t="n">
         <v>0.285</v>
@@ -3251,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="EB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EC3" t="n">
         <v>24</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>111.7</v>
+        <v>111.5</v>
       </c>
       <c r="HJ3" t="n">
         <v>32.6</v>
@@ -3648,16 +3648,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="JA3" t="n">
         <v>22.9</v>
       </c>
       <c r="JB3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="JC3" t="n">
         <v>8.4</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="KB3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="KC3" t="n">
         <v>21</v>
@@ -5103,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="EB5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="EC5" t="n">
         <v>20</v>
@@ -9386,16 +9386,16 @@
         <v>10.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -9464,10 +9464,10 @@
         <v>11</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
@@ -9528,19 +9528,19 @@
         <v>346</v>
       </c>
       <c r="BM10" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="BN10" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="BO10" t="n">
         <v>111.5</v>
       </c>
       <c r="BP10" t="n">
-        <v>113.2</v>
+        <v>113</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.6</v>
@@ -9549,22 +9549,22 @@
         <v>0.608</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="BU10" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="BV10" t="n">
         <v>0.275</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.485</v>
+        <v>0.487</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.505</v>
@@ -9576,13 +9576,13 @@
         <v>102.8</v>
       </c>
       <c r="CC10" t="n">
-        <v>100.51</v>
+        <v>100.65</v>
       </c>
       <c r="CD10" t="n">
-        <v>83.76000000000001</v>
+        <v>83.87</v>
       </c>
       <c r="CE10" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="CF10" t="n">
         <v>0.456</v>
@@ -9606,7 +9606,7 @@
         <v>19</v>
       </c>
       <c r="CM10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CN10" t="n">
         <v>27</v>
@@ -9639,7 +9639,7 @@
         <v>23</v>
       </c>
       <c r="CX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CY10" t="n">
         <v>27</v>
@@ -9682,7 +9682,7 @@
         <v>0.23</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="DL10" t="n">
         <v>0.275</v>
@@ -9697,7 +9697,7 @@
         <v>0.166</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.264</v>
+        <v>0.261</v>
       </c>
       <c r="DQ10" t="n">
         <v>6</v>
@@ -9733,7 +9733,7 @@
         <v>22</v>
       </c>
       <c r="EB10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EC10" t="n">
         <v>15</v>
@@ -10000,13 +10000,13 @@
         <v>49.4</v>
       </c>
       <c r="HI10" t="n">
-        <v>113.2</v>
+        <v>113</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="HL10" t="n">
         <v>7.9</v>
@@ -10042,10 +10042,10 @@
         <v>1</v>
       </c>
       <c r="HW10" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX10" t="n">
         <v>26</v>
-      </c>
-      <c r="HX10" t="n">
-        <v>27</v>
       </c>
       <c r="HY10" t="n">
         <v>15</v>
@@ -10399,7 +10399,7 @@
         <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
         <v>23</v>
@@ -11458,7 +11458,7 @@
         <v>12</v>
       </c>
       <c r="CM12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CN12" t="n">
         <v>20</v>
@@ -11894,7 +11894,7 @@
         <v>3</v>
       </c>
       <c r="HW12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="HX12" t="n">
         <v>21</v>
@@ -12069,7 +12069,7 @@
         <v>11</v>
       </c>
       <c r="KB12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="KC12" t="n">
         <v>17</v>
@@ -13168,7 +13168,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT14" t="n">
         <v>28</v>
@@ -13749,7 +13749,7 @@
         <v>22</v>
       </c>
       <c r="HX14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="HY14" t="n">
         <v>22</v>
@@ -14269,7 +14269,7 @@
         <v>8</v>
       </c>
       <c r="CX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CY15" t="n">
         <v>3</v>
@@ -14841,7 +14841,7 @@
         <v>3</v>
       </c>
       <c r="JZ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="KA15" t="n">
         <v>13</v>
@@ -18993,7 +18993,7 @@
         <v>2</v>
       </c>
       <c r="EB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC20" t="n">
         <v>1</v>

--- a/Team-Data/2020-21/1-5-2020-21.xlsx
+++ b/Team-Data/2020-21/1-5-2020-21.xlsx
@@ -811,61 +811,61 @@
         <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>2</v>
       </c>
       <c r="AP2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>8</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>28</v>
@@ -874,19 +874,19 @@
         <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
         <v>6</v>
       </c>
       <c r="BB2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -996,37 +996,37 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -1035,16 +1035,16 @@
         <v>22</v>
       </c>
       <c r="AR3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
@@ -1059,10 +1059,10 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -1097,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>42.5</v>
+        <v>41.1</v>
       </c>
       <c r="J4" t="n">
-        <v>88.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.479</v>
+        <v>0.467</v>
       </c>
       <c r="L4" t="n">
         <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O4" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R4" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
       <c r="T4" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="U4" t="n">
-        <v>25.1</v>
+        <v>24.3</v>
       </c>
       <c r="V4" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.5</v>
+        <v>118</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17</v>
       </c>
-      <c r="AG4" t="n">
-        <v>15</v>
-      </c>
       <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
         <v>10</v>
       </c>
-      <c r="AI4" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS4" t="n">
         <v>4</v>
       </c>
-      <c r="AR4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX4" t="n">
         <v>3</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -1357,16 +1357,16 @@
         <v>-5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1387,10 +1387,10 @@
         <v>14</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1399,34 +1399,34 @@
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS5" t="n">
         <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
@@ -1479,76 +1479,76 @@
         <v>39.9</v>
       </c>
       <c r="J6" t="n">
-        <v>88.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L6" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="M6" t="n">
-        <v>36.4</v>
+        <v>35.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.804</v>
+        <v>0.801</v>
       </c>
       <c r="R6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S6" t="n">
-        <v>35.6</v>
+        <v>34.9</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="V6" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
         <v>18</v>
       </c>
-      <c r="W6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>113.9</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>17</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1557,64 +1557,64 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
       </c>
       <c r="AN6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS6" t="n">
         <v>16</v>
       </c>
-      <c r="AO6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AT6" t="n">
         <v>21</v>
       </c>
-      <c r="AS6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>16</v>
-      </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX6" t="n">
         <v>24</v>
       </c>
       <c r="AY6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -1721,28 +1721,28 @@
         <v>-0.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>27</v>
@@ -1757,13 +1757,13 @@
         <v>30</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>24</v>
@@ -1784,13 +1784,13 @@
         <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>11</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>28</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -1903,16 +1903,16 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
@@ -1927,25 +1927,25 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>19</v>
@@ -1960,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
         <v>28</v>
@@ -1969,16 +1969,16 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2007,124 +2007,124 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="H9" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I9" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="J9" t="n">
-        <v>86.3</v>
+        <v>87.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.495</v>
+        <v>0.491</v>
       </c>
       <c r="L9" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="M9" t="n">
-        <v>31.9</v>
+        <v>33</v>
       </c>
       <c r="N9" t="n">
-        <v>0.372</v>
+        <v>0.379</v>
       </c>
       <c r="O9" t="n">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="P9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R9" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
         <v>41.7</v>
       </c>
       <c r="U9" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
         <v>4.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>24.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>24</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>15</v>
@@ -2136,31 +2136,31 @@
         <v>26</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX9" t="n">
         <v>19</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>9</v>
       </c>
       <c r="AZ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC9" t="n">
         <v>14</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>12</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>10.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>24.6</v>
       </c>
       <c r="V10" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -2267,7 +2267,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2306,43 +2306,43 @@
         <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
         <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2449,22 +2449,22 @@
         <v>-4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2503,10 +2503,10 @@
         <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
         <v>3</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2634,13 +2634,13 @@
         <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
@@ -2652,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>14</v>
@@ -2664,13 +2664,13 @@
         <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>27</v>
@@ -2682,13 +2682,13 @@
         <v>27</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV12" t="n">
         <v>15</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
@@ -2697,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>9</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2813,25 +2813,25 @@
         <v>6.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
         <v>3</v>
       </c>
-      <c r="AF13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>3</v>
@@ -2846,10 +2846,10 @@
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
@@ -2861,13 +2861,13 @@
         <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
         <v>4</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
         <v>2</v>
@@ -2882,13 +2882,13 @@
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -2917,109 +2917,109 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.714</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="M14" t="n">
         <v>34.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.419</v>
+        <v>0.417</v>
       </c>
       <c r="O14" t="n">
-        <v>16.1</v>
+        <v>16.7</v>
       </c>
       <c r="P14" t="n">
-        <v>19.6</v>
+        <v>20.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.822</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="U14" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.6</v>
+        <v>18.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>110.9</v>
+        <v>110.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
         <v>17</v>
@@ -3028,46 +3028,46 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -3099,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>43.3</v>
+        <v>44</v>
       </c>
       <c r="J15" t="n">
-        <v>88.5</v>
+        <v>88.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.489</v>
+        <v>0.496</v>
       </c>
       <c r="L15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="M15" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="N15" t="n">
-        <v>0.392</v>
+        <v>0.406</v>
       </c>
       <c r="O15" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="P15" t="n">
-        <v>19.6</v>
+        <v>20.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>38.9</v>
+        <v>38.3</v>
       </c>
       <c r="T15" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="U15" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>6.6</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.6</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.1</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>114.1</v>
+        <v>117</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
         <v>2</v>
@@ -3192,52 +3192,52 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
@@ -3246,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -3281,148 +3281,148 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>40.9</v>
+        <v>41.7</v>
       </c>
       <c r="J16" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="M16" t="n">
-        <v>32.9</v>
+        <v>34</v>
       </c>
       <c r="N16" t="n">
-        <v>0.326</v>
+        <v>0.319</v>
       </c>
       <c r="O16" t="n">
-        <v>14.4</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>18.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q16" t="n">
         <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>36.1</v>
+        <v>36.7</v>
       </c>
       <c r="T16" t="n">
-        <v>46.6</v>
+        <v>48</v>
       </c>
       <c r="U16" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W16" t="n">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.1</v>
+        <v>18.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.6</v>
+        <v>18.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>106.9</v>
+        <v>109.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
         <v>24</v>
       </c>
-      <c r="AL16" t="n">
-        <v>25</v>
-      </c>
       <c r="AM16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP16" t="n">
         <v>27</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>13</v>
       </c>
       <c r="AR16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>12</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AV16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX16" t="n">
         <v>13</v>
       </c>
-      <c r="AT16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>15</v>
-      </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
@@ -3431,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -3541,13 +3541,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -3565,16 +3565,16 @@
         <v>6</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
@@ -3589,10 +3589,10 @@
         <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
@@ -3607,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -3723,16 +3723,16 @@
         <v>13.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
@@ -3759,22 +3759,22 @@
         <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV18" t="n">
         <v>20</v>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3792,7 +3792,7 @@
         <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -3827,109 +3827,109 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="J19" t="n">
-        <v>92.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>11</v>
       </c>
       <c r="M19" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O19" t="n">
-        <v>14.9</v>
+        <v>13.8</v>
       </c>
       <c r="P19" t="n">
-        <v>20.1</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.738</v>
+        <v>0.728</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
         <v>42.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.9</v>
+        <v>20.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.6</v>
+        <v>18.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>107.6</v>
+        <v>106.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-12.4</v>
+        <v>-13.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>16</v>
@@ -3938,16 +3938,16 @@
         <v>29</v>
       </c>
       <c r="AO19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>25</v>
       </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3962,22 +3962,22 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>13</v>
       </c>
-      <c r="AY19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>23</v>
-      </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4087,25 +4087,25 @@
         <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
@@ -4114,40 +4114,40 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
         <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
       </c>
       <c r="AU20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV20" t="n">
         <v>23</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
         <v>17</v>
@@ -4159,10 +4159,10 @@
         <v>3</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4269,16 +4269,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -4290,7 +4290,7 @@
         <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>27</v>
@@ -4299,10 +4299,10 @@
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4311,16 +4311,16 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV21" t="n">
         <v>28</v>
@@ -4329,16 +4329,16 @@
         <v>24</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>22</v>
       </c>
       <c r="BA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4451,16 +4451,16 @@
         <v>-10.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4481,10 +4481,10 @@
         <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
@@ -4502,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4511,7 +4511,7 @@
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>4</v>
@@ -4520,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>30</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4633,22 +4633,22 @@
         <v>3</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
         <v>2</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
         <v>2</v>
@@ -4660,7 +4660,7 @@
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
@@ -4678,13 +4678,13 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
         <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
         <v>3</v>
@@ -4702,13 +4702,13 @@
         <v>3</v>
       </c>
       <c r="BA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB23" t="n">
         <v>16</v>
       </c>
-      <c r="BB23" t="n">
-        <v>17</v>
-      </c>
       <c r="BC23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>1</v>
@@ -4830,25 +4830,25 @@
         <v>11</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4860,10 +4860,10 @@
         <v>16</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>6</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -4997,16 +4997,16 @@
         <v>7.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="n">
         <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -5018,7 +5018,7 @@
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -5030,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
         <v>30</v>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -5101,136 +5101,136 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.429</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>92.3</v>
+        <v>92</v>
       </c>
       <c r="K26" t="n">
-        <v>0.432</v>
+        <v>0.435</v>
       </c>
       <c r="L26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="M26" t="n">
-        <v>42.7</v>
+        <v>41.3</v>
       </c>
       <c r="N26" t="n">
         <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>20</v>
       </c>
       <c r="P26" t="n">
-        <v>24.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="T26" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.4</v>
+        <v>115.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU26" t="n">
         <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>27</v>
       </c>
       <c r="AV26" t="n">
         <v>1</v>
@@ -5242,19 +5242,19 @@
         <v>27</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -5361,19 +5361,19 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG27" t="n">
         <v>17</v>
       </c>
-      <c r="AF27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>18</v>
-      </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5388,19 +5388,19 @@
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
         <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5409,10 +5409,10 @@
         <v>17</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>11</v>
@@ -5424,19 +5424,19 @@
         <v>10</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
         <v>18</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -5465,145 +5465,145 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="J28" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L28" t="n">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="M28" t="n">
-        <v>30.3</v>
+        <v>28.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.372</v>
       </c>
       <c r="O28" t="n">
-        <v>14.6</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>19.1</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>36.4</v>
+        <v>37</v>
       </c>
       <c r="T28" t="n">
-        <v>45.9</v>
+        <v>46.2</v>
       </c>
       <c r="U28" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Y28" t="n">
         <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>111.4</v>
+        <v>110.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-3.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
         <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>30</v>
@@ -5612,13 +5612,13 @@
         <v>6</v>
       </c>
       <c r="BA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC28" t="n">
         <v>22</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>20</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -5725,13 +5725,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>29</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
         <v>29</v>
@@ -5761,10 +5761,10 @@
         <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>19</v>
@@ -5776,10 +5776,10 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
         <v>4</v>
@@ -5794,13 +5794,13 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>26</v>
       </c>
       <c r="BC29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -5829,148 +5829,148 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="J30" t="n">
-        <v>88.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.461</v>
       </c>
       <c r="L30" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="M30" t="n">
-        <v>38.7</v>
+        <v>39.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.373</v>
+        <v>0.38</v>
       </c>
       <c r="O30" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="P30" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.718</v>
+        <v>0.721</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>38.4</v>
+        <v>39.5</v>
       </c>
       <c r="T30" t="n">
-        <v>49.9</v>
+        <v>51.3</v>
       </c>
       <c r="U30" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
         <v>18</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>109.7</v>
+        <v>112</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM30" t="n">
         <v>5</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AP30" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY30" t="n">
         <v>18</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>4</v>
@@ -5979,10 +5979,10 @@
         <v>27</v>
       </c>
       <c r="BB30" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
@@ -6089,40 +6089,40 @@
         <v>-1.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP31" t="n">
         <v>7</v>
@@ -6137,10 +6137,10 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6161,7 +6161,7 @@
         <v>6</v>
       </c>
       <c r="BB31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC31" t="n">
         <v>16</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-5-2020-21</t>
+          <t>2021-01-05</t>
         </is>
       </c>
     </row>
